--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1040200.494156839</v>
+        <v>-1042759.764724395</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9662774206981</v>
+        <v>193.9173771654243</v>
       </c>
       <c r="H2" t="n">
         <v>295.0640301736143</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>43.2945117796236</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>204.1129955007334</v>
       </c>
       <c r="U2" t="n">
-        <v>227.1792315232372</v>
+        <v>250.9987361002815</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>67.16465580656602</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0457926480648</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9326943004822</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.95340549104682</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>89.83072347163693</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>190.1172987294701</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.6343371202345</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2129282631967</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>97.44171578858435</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>200.1627776403521</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>14.95687341106452</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>58.90526557893654</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>92.7224286874786</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>352.0975552298093</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>4.416820816807321</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,7 +1345,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>212.6180720598446</v>
+        <v>38.08911817509464</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>36.21070476472267</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856266</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>71.05846343488452</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>22.54881804343128</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>158.2472899190585</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>20.4311206861324</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>57.65182679923939</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444146</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2290,13 +2290,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>167.9698660663629</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>132.2740511637358</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2527,10 +2527,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>14.75529838241542</v>
       </c>
       <c r="U25" t="n">
-        <v>7.069540131684589</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>56.04917322725637</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>246.4755938422909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>97.75513637220244</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673021</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652659</v>
+        <v>56.98118882652494</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808193</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,10 +3247,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261721</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,10 +3484,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3503,13 +3503,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541852</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,10 +3721,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1891.60405412151</v>
+        <v>1330.306318214528</v>
       </c>
       <c r="C2" t="n">
-        <v>1522.641537181099</v>
+        <v>961.3438012741165</v>
       </c>
       <c r="D2" t="n">
-        <v>1164.375838574348</v>
+        <v>603.078102667366</v>
       </c>
       <c r="E2" t="n">
-        <v>778.587585976104</v>
+        <v>603.0781026673662</v>
       </c>
       <c r="F2" t="n">
-        <v>778.587585976104</v>
+        <v>603.0781026673662</v>
       </c>
       <c r="G2" t="n">
-        <v>363.470134036005</v>
+        <v>407.201964116433</v>
       </c>
       <c r="H2" t="n">
-        <v>65.42565911316235</v>
+        <v>109.1574891935902</v>
       </c>
       <c r="I2" t="n">
         <v>65.42565911316235</v>
       </c>
       <c r="J2" t="n">
-        <v>250.5613272725627</v>
+        <v>250.5613272725626</v>
       </c>
       <c r="K2" t="n">
-        <v>578.7702206183947</v>
+        <v>578.7702206183944</v>
       </c>
       <c r="L2" t="n">
         <v>1022.844136887445</v>
@@ -4343,37 +4343,37 @@
         <v>2087.54019874618</v>
       </c>
       <c r="O2" t="n">
-        <v>2583.081262767916</v>
+        <v>2583.081262767915</v>
       </c>
       <c r="P2" t="n">
-        <v>2971.513095303805</v>
+        <v>2971.513095303806</v>
       </c>
       <c r="Q2" t="n">
         <v>3215.036478301002</v>
       </c>
       <c r="R2" t="n">
-        <v>3271.282955658117</v>
+        <v>3271.282955658118</v>
       </c>
       <c r="S2" t="n">
-        <v>3271.282955658117</v>
+        <v>3271.282955658118</v>
       </c>
       <c r="T2" t="n">
-        <v>3271.282955658117</v>
+        <v>3065.108212728084</v>
       </c>
       <c r="U2" t="n">
-        <v>3041.808984422524</v>
+        <v>2811.574135859112</v>
       </c>
       <c r="V2" t="n">
-        <v>3041.808984422524</v>
+        <v>2480.511248515541</v>
       </c>
       <c r="W2" t="n">
-        <v>3041.808984422524</v>
+        <v>2480.511248515541</v>
       </c>
       <c r="X2" t="n">
-        <v>2668.343226161444</v>
+        <v>2107.045490254462</v>
       </c>
       <c r="Y2" t="n">
-        <v>2278.203894185632</v>
+        <v>1716.90615827865</v>
       </c>
     </row>
     <row r="3">
@@ -4422,7 +4422,7 @@
         <v>1661.583283102522</v>
       </c>
       <c r="O3" t="n">
-        <v>2094.603797632936</v>
+        <v>2066.929778176383</v>
       </c>
       <c r="P3" t="n">
         <v>2400.597029664691</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>646.4142586467196</v>
+        <v>1813.783419720863</v>
       </c>
       <c r="C4" t="n">
-        <v>477.4780757188127</v>
+        <v>1644.847236792956</v>
       </c>
       <c r="D4" t="n">
-        <v>477.4780757188127</v>
+        <v>1577.004150119657</v>
       </c>
       <c r="E4" t="n">
-        <v>477.4780757188127</v>
+        <v>1577.004150119657</v>
       </c>
       <c r="F4" t="n">
-        <v>477.4780757188127</v>
+        <v>1430.114202621746</v>
       </c>
       <c r="G4" t="n">
-        <v>309.7550528419796</v>
+        <v>1430.114202621746</v>
       </c>
       <c r="H4" t="n">
-        <v>163.3583919324016</v>
+        <v>1430.114202621746</v>
       </c>
       <c r="I4" t="n">
-        <v>65.42565911316235</v>
+        <v>1430.114202621746</v>
       </c>
       <c r="J4" t="n">
-        <v>109.1495242182615</v>
+        <v>1473.838067726846</v>
       </c>
       <c r="K4" t="n">
-        <v>310.8381027401521</v>
+        <v>1675.526646248736</v>
       </c>
       <c r="L4" t="n">
-        <v>624.4564789039118</v>
+        <v>1989.145022412496</v>
       </c>
       <c r="M4" t="n">
-        <v>965.512207122043</v>
+        <v>2330.200750630628</v>
       </c>
       <c r="N4" t="n">
-        <v>1303.893008842035</v>
+        <v>2668.58155235062</v>
       </c>
       <c r="O4" t="n">
-        <v>1600.426152235784</v>
+        <v>2965.114695744368</v>
       </c>
       <c r="P4" t="n">
-        <v>1830.640801863761</v>
+        <v>3195.329345372345</v>
       </c>
       <c r="Q4" t="n">
-        <v>1906.594412149533</v>
+        <v>3271.282955658118</v>
       </c>
       <c r="R4" t="n">
-        <v>1815.856307632728</v>
+        <v>3271.282955658118</v>
       </c>
       <c r="S4" t="n">
-        <v>1623.818632148415</v>
+        <v>3271.282955658118</v>
       </c>
       <c r="T4" t="n">
-        <v>1401.965766370401</v>
+        <v>3049.430089880103</v>
       </c>
       <c r="U4" t="n">
-        <v>1401.965766370401</v>
+        <v>2760.32612193748</v>
       </c>
       <c r="V4" t="n">
-        <v>1147.281278164514</v>
+        <v>2505.641633731594</v>
       </c>
       <c r="W4" t="n">
-        <v>1147.281278164514</v>
+        <v>2216.224463694633</v>
       </c>
       <c r="X4" t="n">
-        <v>1048.85530262049</v>
+        <v>2216.224463694633</v>
       </c>
       <c r="Y4" t="n">
-        <v>828.0627234769594</v>
+        <v>1995.431884551103</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1480.516858765518</v>
+        <v>1616.654488422266</v>
       </c>
       <c r="C5" t="n">
-        <v>1111.554341825106</v>
+        <v>1247.691971481854</v>
       </c>
       <c r="D5" t="n">
-        <v>1111.554341825106</v>
+        <v>889.4262728751039</v>
       </c>
       <c r="E5" t="n">
-        <v>725.7660892268618</v>
+        <v>503.6380202768597</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>92.6521154872521</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>81.62006937265265</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066531</v>
+        <v>2766.859418723279</v>
       </c>
       <c r="X5" t="n">
-        <v>2257.256030805451</v>
+        <v>2393.393660462199</v>
       </c>
       <c r="Y5" t="n">
-        <v>1867.11669882964</v>
+        <v>2003.254328486388</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,34 +4662,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460.8443805240842</v>
+        <v>758.9852304414014</v>
       </c>
       <c r="C7" t="n">
-        <v>460.8443805240842</v>
+        <v>590.0490475134945</v>
       </c>
       <c r="D7" t="n">
-        <v>310.7277411117484</v>
+        <v>439.9324081011588</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>439.9324081011588</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>439.9324081011588</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>272.2295714758777</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>126.0123846937355</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335303</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W7" t="n">
-        <v>782.4929502983425</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X7" t="n">
-        <v>554.5033994003252</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="Y7" t="n">
-        <v>460.8443805240842</v>
+        <v>940.6336952716412</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1881.708680670284</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1512.746163729872</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1154.480465123122</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>768.6922125248775</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>761.746711775674</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,7 +4802,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4814,10 +4814,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296686</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.308520734406</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2153.285934409297</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="C10" t="n">
-        <v>2153.285934409297</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="D10" t="n">
-        <v>2003.169294996962</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E10" t="n">
-        <v>1855.256201414568</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>1708.366253916658</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>1708.366253916658</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>1562.149067134516</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>3133.919937435997</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>2912.153322005523</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>2912.153322005523</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>2657.468833799636</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>2368.051663762676</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>2153.285934409297</v>
+        <v>552.3332093826492</v>
       </c>
       <c r="Y10" t="n">
-        <v>2153.285934409297</v>
+        <v>331.5406302391191</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811303</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532234</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408877</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408877</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429773</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578572</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000553</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2125.286319795765</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2125.286319795765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1870.601831589878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.184661552917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.1951106549</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.40253151137</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5276,10 +5276,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,10 +5288,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,22 +5352,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>954.24764486066</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C16" t="n">
-        <v>785.3114619327532</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D16" t="n">
-        <v>635.1948225204175</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E16" t="n">
-        <v>487.2817289380243</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F16" t="n">
-        <v>340.391781440114</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>1135.8961096909</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="17">
@@ -5504,22 +5504,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5531,31 +5531,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991043</v>
+        <v>513.853600740072</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711973</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5674,49 +5674,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2321.683211348583</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2102.081746371524</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1813.006519715721</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1558.322031509835</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1268.904861472874</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1268.904861472874</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703117</v>
       </c>
     </row>
     <row r="20">
@@ -5729,61 +5729,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2529.355041543136</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>784.5811134804957</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="C22" t="n">
-        <v>615.6449305525888</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D22" t="n">
-        <v>465.528291140253</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578599</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5929,7 +5929,7 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2027.396014107403</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1738.3207874516</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1483.636299245713</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W22" t="n">
-        <v>1194.219129208753</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X22" t="n">
-        <v>966.2295783107354</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y22" t="n">
-        <v>966.2295783107354</v>
+        <v>816.5764010855556</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>402.724593490894</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2182.158203687148</v>
       </c>
       <c r="U25" t="n">
-        <v>1970.320130882545</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V25" t="n">
-        <v>1715.635642676658</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W25" t="n">
-        <v>1426.218472639697</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X25" t="n">
-        <v>1198.22892174168</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>900.1991887469508</v>
       </c>
     </row>
     <row r="26">
@@ -6212,25 +6212,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6309,19 +6309,19 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179092</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5477693179092</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4311299055735</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5180363231802</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>317.62808882527</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>150.43198954015</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6388,7 +6388,7 @@
         <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6409,25 +6409,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359457</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614394</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179092</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.07903472198</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3122.22696873374</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>4115.110757018135</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V31" t="n">
-        <v>3860.426268812248</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>3571.009098775287</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>3343.01954787727</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>3122.22696873374</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,28 +6835,28 @@
         <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345484</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384028</v>
+        <v>151.3734194384011</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
         <v>483.8255460380728</v>
@@ -6883,13 +6883,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6917,10 +6917,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6977,7 +6977,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,25 +7017,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,25 +7117,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7154,7 +7154,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7172,10 +7172,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7266,13 +7266,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319332</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942664</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580124</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345486</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,19 +7345,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7375,7 +7375,7 @@
         <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7491,25 +7491,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580106</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7728,25 +7728,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>372.4964262156764</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7798,16 +7798,16 @@
         <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8070,10 +8070,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27.95355500661958</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>27.95355500661981</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>217.0489002552737</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>43.2945117796236</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>110.2029851842623</v>
       </c>
       <c r="T2" t="n">
-        <v>204.1129955007334</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>23.81950457704431</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22708,22 +22708,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>81.45081721164634</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0457926480648</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.9326943004822</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.95340549104682</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,25 +22750,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>89.83072347163693</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>190.1172987294701</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2129282631967</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>128.2679396004528</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>112.4047682534897</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>146.3469868924037</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>142.9753202488376</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>60.33736343303627</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>146.8157004124954</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>123.3744592024052</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24178,13 +24178,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>49.43558426092537</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>119.8635921600922</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>202.6501519448728</v>
       </c>
       <c r="U25" t="n">
-        <v>279.1149342575596</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>84.24553961896748</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>39.7088805469532</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>69.49168472642539</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>5.293543381412746e-13</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -26320,7 +26320,7 @@
         <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>201786.6499225016</v>
+        <v>201786.6499225015</v>
       </c>
       <c r="F2" t="n">
         <v>201786.6499225015</v>
@@ -26329,10 +26329,10 @@
         <v>201786.6499225016</v>
       </c>
       <c r="H2" t="n">
+        <v>201786.6499225015</v>
+      </c>
+      <c r="I2" t="n">
         <v>201786.6499225016</v>
-      </c>
-      <c r="I2" t="n">
-        <v>201786.6499225015</v>
       </c>
       <c r="J2" t="n">
         <v>201786.6499225015</v>
@@ -26341,10 +26341,10 @@
         <v>201786.6499225015</v>
       </c>
       <c r="L2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.442466071</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.442466071</v>
       </c>
       <c r="N2" t="n">
         <v>205260.4424660709</v>
@@ -26366,7 +26366,7 @@
         <v>1313514.533081207</v>
       </c>
       <c r="C3" t="n">
-        <v>14479.05232074576</v>
+        <v>14479.0523207458</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213977.889412553</v>
+        <v>213977.8894125531</v>
       </c>
       <c r="K3" t="n">
-        <v>3495.241841022668</v>
+        <v>3495.241841022697</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363164</v>
+        <v>19427.71799363159</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>11046.00124731557</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26433,7 +26433,7 @@
         <v>10557.08828678117</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678119</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
@@ -26445,16 +26445,16 @@
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>18547.94754987471</v>
+        <v>18547.94754987466</v>
       </c>
       <c r="M4" t="n">
-        <v>18547.94754987471</v>
+        <v>18547.94754987469</v>
       </c>
       <c r="N4" t="n">
-        <v>18547.9475498747</v>
+        <v>18547.94754987468</v>
       </c>
       <c r="O4" t="n">
-        <v>18547.94754987468</v>
+        <v>18547.94754987467</v>
       </c>
       <c r="P4" t="n">
         <v>18547.94754987468</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1262175.033337313</v>
+        <v>-1262535.11635303</v>
       </c>
       <c r="C6" t="n">
-        <v>-6896.673474200725</v>
+        <v>-6896.673474200739</v>
       </c>
       <c r="D6" t="n">
-        <v>7582.378846544991</v>
+        <v>7582.378846545005</v>
       </c>
       <c r="E6" t="n">
-        <v>-235305.429995542</v>
+        <v>-235340.1679209779</v>
       </c>
       <c r="F6" t="n">
-        <v>90107.0318118132</v>
+        <v>90072.29388637745</v>
       </c>
       <c r="G6" t="n">
-        <v>90107.0318118133</v>
+        <v>90072.29388637761</v>
       </c>
       <c r="H6" t="n">
-        <v>90107.0318118131</v>
+        <v>90072.29388637753</v>
       </c>
       <c r="I6" t="n">
-        <v>90107.03181181318</v>
+        <v>90072.29388637756</v>
       </c>
       <c r="J6" t="n">
-        <v>-123870.8576007398</v>
+        <v>-123905.5955261756</v>
       </c>
       <c r="K6" t="n">
-        <v>86611.78997079052</v>
+        <v>86577.05204535479</v>
       </c>
       <c r="L6" t="n">
-        <v>64120.66106864915</v>
+        <v>64120.66106864932</v>
       </c>
       <c r="M6" t="n">
-        <v>-1506.648873231097</v>
+        <v>-1506.648873230937</v>
       </c>
       <c r="N6" t="n">
+        <v>83548.37906228084</v>
+      </c>
+      <c r="O6" t="n">
         <v>83548.37906228079</v>
       </c>
-      <c r="O6" t="n">
-        <v>83548.37906228073</v>
-      </c>
       <c r="P6" t="n">
-        <v>83548.37906228082</v>
+        <v>83548.37906228087</v>
       </c>
     </row>
   </sheetData>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145293</v>
+        <v>817.8207389145294</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26805,10 +26805,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145293</v>
+        <v>817.8207389145294</v>
       </c>
       <c r="C4" t="n">
-        <v>13.58071648776331</v>
+        <v>13.58071648776342</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145291</v>
+        <v>817.8207389145294</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776331</v>
+        <v>13.58071648776342</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145293</v>
+        <v>817.8207389145294</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776331</v>
+        <v>13.58071648776342</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>206.7132681013593</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>279.6508909762559</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>37.44715483090155</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,7 +27828,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>125.8622246646162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>58.82417042364415</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>344.8241479006057</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,19 +28014,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,7 +28065,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>13.0915833291925</v>
+        <v>187.6205372139425</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.769605614425566e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2.870024218282196e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30223,13 +30223,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912044</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>543.0832917018711</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.544175081759</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,13 +32549,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>622.4211036182644</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>169.6252075171348</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32716,7 +32716,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N23" t="n">
         <v>981.2715114159428</v>
@@ -32789,28 +32789,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>508.8976500257889</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -32953,7 +32953,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159428</v>
@@ -33029,22 +33029,22 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>567.7870775946146</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33263,28 +33263,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>301.6445156724557</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33503,7 +33503,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>198.5607970756955</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,28 +33737,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>704.1404939038099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,10 +34211,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>535.8585467435948</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,7 +34448,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>266.392684868584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34790,10 +34790,10 @@
         <v>472.1064209457217</v>
       </c>
       <c r="O3" t="n">
-        <v>437.3944591216305</v>
+        <v>409.4409041150109</v>
       </c>
       <c r="P3" t="n">
-        <v>309.0840727593488</v>
+        <v>337.0376277659686</v>
       </c>
       <c r="Q3" t="n">
         <v>156.1910865638649</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691861</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>409.1088842875408</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,16 +35729,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367785</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,13 +36197,13 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>483.8667238383903</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>23.94570355317081</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193518</v>
@@ -36437,28 +36437,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>366.7636161037706</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295339</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36601,7 +36601,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193518</v>
@@ -36677,22 +36677,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>425.1908331501702</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789214</v>
@@ -36911,28 +36911,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>159.0482712280113</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>55.96455263125101</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>572.7987818204766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>393.2623022991504</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>128.551245894225</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
